--- a/po_analysis_by_asin/B0D254J2D6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D254J2D6_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>14</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>18</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>10</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>12</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>12</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>38</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>10</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>6</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>14</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>22</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>12</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>16</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>8</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>36</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>34</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>6</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45621</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>14</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>52</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>60</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>46</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>60</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>42</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>

--- a/po_analysis_by_asin/B0D254J2D6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D254J2D6_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -727,6 +728,481 @@
       </c>
       <c r="B9" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.44711643166707</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.25071143200483</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.161985867679756</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.47628161171109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9795329760564324</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.25142136285471</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.619333466015128</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.25832050999749</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.630903898728106</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.17124480221236</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.711852971308123</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.28884273761127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.041049515054502</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.03413768939986</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.19126312647168</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.07143172697685</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3904633536369073</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.95124570993538</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.5000196530637044</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.12004911808427</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.281908590795265</v>
+      </c>
+      <c r="D12" t="n">
+        <v>26.18802679706323</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3094734141033493</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25.07938236604395</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.2679262945930946</v>
+      </c>
+      <c r="D14" t="n">
+        <v>26.30299706157736</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4777557647614131</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25.27301331674511</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05262064230914584</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.71230521850417</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.672162357668087</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.17202318438308</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.056131629905958</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25.69292224063442</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.3312858482844827</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25.24719458235435</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.611085889392447</v>
+      </c>
+      <c r="D20" t="n">
+        <v>24.2782643002923</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.9823454525308103</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23.95093471424883</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.798168283215304</v>
+      </c>
+      <c r="D22" t="n">
+        <v>23.98239070122738</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.615905096427415</v>
+      </c>
+      <c r="D23" t="n">
+        <v>23.60116703428174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.955682878193036</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23.83827608680078</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.789381178041031</v>
+      </c>
+      <c r="D25" t="n">
+        <v>22.66584761826051</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.518413885324669</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22.47297183385867</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.289439638468262</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23.48552350283035</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.899399363522755</v>
+      </c>
+      <c r="D28" t="n">
+        <v>22.56611059041239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.508598386166035</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23.16917894300598</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.114923774791548</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21.91103771148572</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.6290878803665</v>
+      </c>
+      <c r="D31" t="n">
+        <v>22.92023966146159</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-3.526660922023199</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21.60537192875155</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D254J2D6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D254J2D6_po_data.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,16 +760,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -778,12 +768,6 @@
       <c r="B2" t="n">
         <v>15</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.44711643166707</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.25071143200483</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -792,12 +776,6 @@
       <c r="B3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.161985867679756</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.47628161171109</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -806,12 +784,6 @@
       <c r="B4" t="n">
         <v>15</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.9795329760564324</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.25142136285471</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -820,12 +792,6 @@
       <c r="B5" t="n">
         <v>15</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.619333466015128</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.25832050999749</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -834,12 +800,6 @@
       <c r="B6" t="n">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.630903898728106</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28.17124480221236</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -848,12 +808,6 @@
       <c r="B7" t="n">
         <v>15</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.711852971308123</v>
-      </c>
-      <c r="D7" t="n">
-        <v>27.28884273761127</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -862,12 +816,6 @@
       <c r="B8" t="n">
         <v>14</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.041049515054502</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28.03413768939986</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -876,12 +824,6 @@
       <c r="B9" t="n">
         <v>14</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.19126312647168</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27.07143172697685</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -890,12 +832,6 @@
       <c r="B10" t="n">
         <v>14</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.3904633536369073</v>
-      </c>
-      <c r="D10" t="n">
-        <v>26.95124570993538</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -904,12 +840,6 @@
       <c r="B11" t="n">
         <v>14</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.5000196530637044</v>
-      </c>
-      <c r="D11" t="n">
-        <v>27.12004911808427</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -918,12 +848,6 @@
       <c r="B12" t="n">
         <v>14</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.281908590795265</v>
-      </c>
-      <c r="D12" t="n">
-        <v>26.18802679706323</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -932,12 +856,6 @@
       <c r="B13" t="n">
         <v>13</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.3094734141033493</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25.07938236604395</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -946,12 +864,6 @@
       <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.2679262945930946</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26.30299706157736</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -960,12 +872,6 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.4777557647614131</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25.27301331674511</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -974,12 +880,6 @@
       <c r="B16" t="n">
         <v>12</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.05262064230914584</v>
-      </c>
-      <c r="D16" t="n">
-        <v>24.71230521850417</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -988,12 +888,6 @@
       <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C17" t="n">
-        <v>-0.672162357668087</v>
-      </c>
-      <c r="D17" t="n">
-        <v>25.17202318438308</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1002,12 +896,6 @@
       <c r="B18" t="n">
         <v>12</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1.056131629905958</v>
-      </c>
-      <c r="D18" t="n">
-        <v>25.69292224063442</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1016,12 +904,6 @@
       <c r="B19" t="n">
         <v>12</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.3312858482844827</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25.24719458235435</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1030,12 +912,6 @@
       <c r="B20" t="n">
         <v>12</v>
       </c>
-      <c r="C20" t="n">
-        <v>-1.611085889392447</v>
-      </c>
-      <c r="D20" t="n">
-        <v>24.2782643002923</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1044,12 +920,6 @@
       <c r="B21" t="n">
         <v>11</v>
       </c>
-      <c r="C21" t="n">
-        <v>-0.9823454525308103</v>
-      </c>
-      <c r="D21" t="n">
-        <v>23.95093471424883</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1058,12 +928,6 @@
       <c r="B22" t="n">
         <v>11</v>
       </c>
-      <c r="C22" t="n">
-        <v>-2.798168283215304</v>
-      </c>
-      <c r="D22" t="n">
-        <v>23.98239070122738</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1072,12 +936,6 @@
       <c r="B23" t="n">
         <v>11</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.615905096427415</v>
-      </c>
-      <c r="D23" t="n">
-        <v>23.60116703428174</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1086,12 +944,6 @@
       <c r="B24" t="n">
         <v>11</v>
       </c>
-      <c r="C24" t="n">
-        <v>-1.955682878193036</v>
-      </c>
-      <c r="D24" t="n">
-        <v>23.83827608680078</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1100,12 +952,6 @@
       <c r="B25" t="n">
         <v>11</v>
       </c>
-      <c r="C25" t="n">
-        <v>-2.789381178041031</v>
-      </c>
-      <c r="D25" t="n">
-        <v>22.66584761826051</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1114,12 +960,6 @@
       <c r="B26" t="n">
         <v>10</v>
       </c>
-      <c r="C26" t="n">
-        <v>-2.518413885324669</v>
-      </c>
-      <c r="D26" t="n">
-        <v>22.47297183385867</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1128,12 +968,6 @@
       <c r="B27" t="n">
         <v>10</v>
       </c>
-      <c r="C27" t="n">
-        <v>-3.289439638468262</v>
-      </c>
-      <c r="D27" t="n">
-        <v>23.48552350283035</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1142,12 +976,6 @@
       <c r="B28" t="n">
         <v>10</v>
       </c>
-      <c r="C28" t="n">
-        <v>-2.899399363522755</v>
-      </c>
-      <c r="D28" t="n">
-        <v>22.56611059041239</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1156,12 +984,6 @@
       <c r="B29" t="n">
         <v>10</v>
       </c>
-      <c r="C29" t="n">
-        <v>-2.508598386166035</v>
-      </c>
-      <c r="D29" t="n">
-        <v>23.16917894300598</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1170,12 +992,6 @@
       <c r="B30" t="n">
         <v>10</v>
       </c>
-      <c r="C30" t="n">
-        <v>-3.114923774791548</v>
-      </c>
-      <c r="D30" t="n">
-        <v>21.91103771148572</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1184,12 +1000,6 @@
       <c r="B31" t="n">
         <v>10</v>
       </c>
-      <c r="C31" t="n">
-        <v>-2.6290878803665</v>
-      </c>
-      <c r="D31" t="n">
-        <v>22.92023966146159</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1197,12 +1007,6 @@
       </c>
       <c r="B32" t="n">
         <v>9</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-3.526660922023199</v>
-      </c>
-      <c r="D32" t="n">
-        <v>21.60537192875155</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D254J2D6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D254J2D6_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -646,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +738,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -741,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +782,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -774,7 +790,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -782,7 +798,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +830,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -862,7 +878,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -870,7 +886,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -886,7 +902,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -894,7 +910,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -902,7 +918,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -910,7 +926,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,7 +934,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -926,7 +942,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -934,7 +950,7 @@
         <v>45620.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -942,71 +958,79 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
